--- a/data/pca/factorExposure/factorExposure_2017-06-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02342232848208358</v>
+        <v>-0.009345505379918241</v>
       </c>
       <c r="C2">
-        <v>-0.005486008310360009</v>
+        <v>0.04492767444337663</v>
       </c>
       <c r="D2">
-        <v>0.03392011082886431</v>
+        <v>-0.02991444500918525</v>
       </c>
       <c r="E2">
-        <v>-0.005048140103650664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03349780541785235</v>
+      </c>
+      <c r="F2">
+        <v>-0.008899018107390029</v>
+      </c>
+      <c r="G2">
+        <v>0.09107103177797278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01834021722010617</v>
+        <v>-0.04535007877728436</v>
       </c>
       <c r="C3">
-        <v>0.04630058034313303</v>
+        <v>0.09537532141877383</v>
       </c>
       <c r="D3">
-        <v>0.0909985584871266</v>
+        <v>-0.01654522941125048</v>
       </c>
       <c r="E3">
-        <v>-0.01370814028976206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1015895252856514</v>
+      </c>
+      <c r="F3">
+        <v>-0.001421740755530194</v>
+      </c>
+      <c r="G3">
+        <v>0.1806951892540441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02517933088126509</v>
+        <v>-0.05588133266541316</v>
       </c>
       <c r="C4">
-        <v>0.01245666002421097</v>
+        <v>0.06827007619180459</v>
       </c>
       <c r="D4">
-        <v>0.08744055924441886</v>
+        <v>-0.02447140230970617</v>
       </c>
       <c r="E4">
-        <v>0.01766116162728423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02650403003574017</v>
+      </c>
+      <c r="F4">
+        <v>-0.01107025551368132</v>
+      </c>
+      <c r="G4">
+        <v>0.09231745586293233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0146740923999582</v>
+        <v>-0.03764974384914781</v>
       </c>
       <c r="C6">
-        <v>-0.002805605428668624</v>
+        <v>0.05328291080711722</v>
       </c>
       <c r="D6">
-        <v>0.08405854221303792</v>
+        <v>-0.01665449809189055</v>
       </c>
       <c r="E6">
-        <v>0.008184265450744705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02732314205046577</v>
+      </c>
+      <c r="F6">
+        <v>-0.008465011018202729</v>
+      </c>
+      <c r="G6">
+        <v>0.06784794100738614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01168811976325138</v>
+        <v>-0.02025472774642205</v>
       </c>
       <c r="C7">
-        <v>0.005950848017623598</v>
+        <v>0.04158323128432347</v>
       </c>
       <c r="D7">
-        <v>0.0461426912694645</v>
+        <v>-0.01325847212859985</v>
       </c>
       <c r="E7">
-        <v>0.06167845001719784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.004093387213059295</v>
+      </c>
+      <c r="F7">
+        <v>0.004585708005535725</v>
+      </c>
+      <c r="G7">
+        <v>0.1249956304080601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007711963311333239</v>
+        <v>-0.002860968097417563</v>
       </c>
       <c r="C8">
-        <v>-0.0002973408874648609</v>
+        <v>0.02488808682202201</v>
       </c>
       <c r="D8">
-        <v>0.007061040148264024</v>
+        <v>-0.004059925086537589</v>
       </c>
       <c r="E8">
-        <v>0.008326572205717697</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0231342929315312</v>
+      </c>
+      <c r="F8">
+        <v>-0.005610887018823974</v>
+      </c>
+      <c r="G8">
+        <v>0.06473372843453731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01723617549004931</v>
+        <v>-0.03320494125135449</v>
       </c>
       <c r="C9">
-        <v>0.01298850051679001</v>
+        <v>0.0497739547218491</v>
       </c>
       <c r="D9">
-        <v>0.06458545375231999</v>
+        <v>-0.01683431994182506</v>
       </c>
       <c r="E9">
-        <v>0.006085845706955987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01813062344239363</v>
+      </c>
+      <c r="F9">
+        <v>-0.01014190776515686</v>
+      </c>
+      <c r="G9">
+        <v>0.0903573089850971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02756285949750197</v>
+        <v>-0.09892548701203917</v>
       </c>
       <c r="C10">
-        <v>0.1758732746651657</v>
+        <v>-0.1808723380553348</v>
       </c>
       <c r="D10">
-        <v>-0.09622360409136824</v>
+        <v>0.01458577990958751</v>
       </c>
       <c r="E10">
-        <v>-0.01381177014107728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02032763432909293</v>
+      </c>
+      <c r="F10">
+        <v>0.02116615683758098</v>
+      </c>
+      <c r="G10">
+        <v>0.06004404502550802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0009917426630478296</v>
+        <v>-0.03449572979846396</v>
       </c>
       <c r="C11">
-        <v>0.001165854855054073</v>
+        <v>0.05520000607239406</v>
       </c>
       <c r="D11">
-        <v>0.05793440575570308</v>
+        <v>-0.002414906070789614</v>
       </c>
       <c r="E11">
-        <v>-0.0006114693163194081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009673189583955319</v>
+      </c>
+      <c r="F11">
+        <v>-0.02122916851618819</v>
+      </c>
+      <c r="G11">
+        <v>0.07623003473963759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005799331807922407</v>
+        <v>-0.03605314441758941</v>
       </c>
       <c r="C12">
-        <v>0.002783212245068461</v>
+        <v>0.04937800620287151</v>
       </c>
       <c r="D12">
-        <v>0.05302165174522063</v>
+        <v>-0.006198782450743108</v>
       </c>
       <c r="E12">
-        <v>0.01084556140186051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001558243567065102</v>
+      </c>
+      <c r="F12">
+        <v>-0.001031850020210455</v>
+      </c>
+      <c r="G12">
+        <v>0.07157854894510925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02461696637021986</v>
+        <v>-0.01563921715481937</v>
       </c>
       <c r="C13">
-        <v>0.01554261186198834</v>
+        <v>0.04051239879194708</v>
       </c>
       <c r="D13">
-        <v>0.03702870425077209</v>
+        <v>-0.02634154753901325</v>
       </c>
       <c r="E13">
-        <v>-0.00658894815745469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03088686974771535</v>
+      </c>
+      <c r="F13">
+        <v>-0.006361337116242602</v>
+      </c>
+      <c r="G13">
+        <v>0.1121205761985765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009179950311397784</v>
+        <v>-0.00850383282479935</v>
       </c>
       <c r="C14">
-        <v>0.01277953579564908</v>
+        <v>0.02887226367015606</v>
       </c>
       <c r="D14">
-        <v>0.01868516641220506</v>
+        <v>-0.009807790383085411</v>
       </c>
       <c r="E14">
-        <v>0.007939781939944747</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002537490995156218</v>
+      </c>
+      <c r="F14">
+        <v>0.008610640024221815</v>
+      </c>
+      <c r="G14">
+        <v>0.09567484373192622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0019071296885334</v>
+        <v>-0.03332687387401752</v>
       </c>
       <c r="C16">
-        <v>0.007378340195683028</v>
+        <v>0.04893457867639827</v>
       </c>
       <c r="D16">
-        <v>0.0547461408920519</v>
+        <v>-0.001917178258908511</v>
       </c>
       <c r="E16">
-        <v>0.01005524329534449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.00828611181600313</v>
+      </c>
+      <c r="F16">
+        <v>-0.00217598831962682</v>
+      </c>
+      <c r="G16">
+        <v>0.07923762020183797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01534370069741663</v>
+        <v>-0.02057803741362457</v>
       </c>
       <c r="C19">
-        <v>0.01654063932441237</v>
+        <v>0.05299830894411753</v>
       </c>
       <c r="D19">
-        <v>0.04088844292874927</v>
+        <v>-0.01892181220316945</v>
       </c>
       <c r="E19">
-        <v>0.005031210674846019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0676450798512971</v>
+      </c>
+      <c r="F19">
+        <v>-0.02125168270921333</v>
+      </c>
+      <c r="G19">
+        <v>0.1262397565748566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01154243806841884</v>
+        <v>-0.01464475112380357</v>
       </c>
       <c r="C20">
-        <v>0.005457312094422463</v>
+        <v>0.03975182891154173</v>
       </c>
       <c r="D20">
-        <v>0.03557656590794359</v>
+        <v>-0.01413748916950882</v>
       </c>
       <c r="E20">
-        <v>-0.00843457817505538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02871278147129134</v>
+      </c>
+      <c r="F20">
+        <v>0.01152524470104458</v>
+      </c>
+      <c r="G20">
+        <v>0.1001369491048322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01627575067825522</v>
+        <v>-0.01320613115856429</v>
       </c>
       <c r="C21">
-        <v>0.01729754887188076</v>
+        <v>0.04040968559270425</v>
       </c>
       <c r="D21">
-        <v>0.0390824500269901</v>
+        <v>-0.01851460216479025</v>
       </c>
       <c r="E21">
-        <v>0.01083187562848491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04230805204456985</v>
+      </c>
+      <c r="F21">
+        <v>0.0006277500161666175</v>
+      </c>
+      <c r="G21">
+        <v>0.1280854747828736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0007004305244908433</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001644413883485286</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002549425825006603</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0008945696506878095</v>
+      </c>
+      <c r="F22">
+        <v>0.0001299762956264935</v>
+      </c>
+      <c r="G22">
+        <v>0.002022518836896614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0007047603406761818</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001640756392259096</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002550686051472556</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0009000764251948212</v>
+      </c>
+      <c r="F23">
+        <v>0.0001317471766958999</v>
+      </c>
+      <c r="G23">
+        <v>0.002031795731240562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004470653476534006</v>
+        <v>-0.02807015467221008</v>
       </c>
       <c r="C24">
-        <v>-0.004554927988618188</v>
+        <v>0.0516801793148273</v>
       </c>
       <c r="D24">
-        <v>0.05268659323561505</v>
+        <v>-0.007209389228095698</v>
       </c>
       <c r="E24">
-        <v>0.008197171471401898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005456425253469534</v>
+      </c>
+      <c r="F24">
+        <v>-0.01381445470157982</v>
+      </c>
+      <c r="G24">
+        <v>0.07897157882525352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01279994584717407</v>
+        <v>-0.04281407728254871</v>
       </c>
       <c r="C25">
-        <v>0.01236370068753311</v>
+        <v>0.05941480198032584</v>
       </c>
       <c r="D25">
-        <v>0.05860346505006861</v>
+        <v>-0.01113255794822281</v>
       </c>
       <c r="E25">
-        <v>0.006903201951432849</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001646614753561817</v>
+      </c>
+      <c r="F25">
+        <v>-0.007702811197029506</v>
+      </c>
+      <c r="G25">
+        <v>0.08614802822731431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02334548596401477</v>
+        <v>-0.01371741180873024</v>
       </c>
       <c r="C26">
-        <v>0.006203043384173187</v>
+        <v>0.01164880815927158</v>
       </c>
       <c r="D26">
-        <v>0.002508334197149818</v>
+        <v>-0.02384106344685824</v>
       </c>
       <c r="E26">
-        <v>0.0108052434634727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005292629050361928</v>
+      </c>
+      <c r="F26">
+        <v>0.009616420048299669</v>
+      </c>
+      <c r="G26">
+        <v>0.07491573900670856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05227663985825894</v>
+        <v>-0.1265599999365928</v>
       </c>
       <c r="C28">
-        <v>0.2437226407096012</v>
+        <v>-0.236101702324072</v>
       </c>
       <c r="D28">
-        <v>-0.1287002907257956</v>
+        <v>0.005401148862716483</v>
       </c>
       <c r="E28">
-        <v>0.006434213428304221</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.00762706757519452</v>
+      </c>
+      <c r="F28">
+        <v>0.01515486357377376</v>
+      </c>
+      <c r="G28">
+        <v>0.06223553759461042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009550501384289159</v>
+        <v>-0.009630906515744235</v>
       </c>
       <c r="C29">
-        <v>0.01619672126166751</v>
+        <v>0.02268768973766887</v>
       </c>
       <c r="D29">
-        <v>0.0174374743062742</v>
+        <v>-0.008772219634862839</v>
       </c>
       <c r="E29">
-        <v>0.005057232981060912</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001319417399081013</v>
+      </c>
+      <c r="F29">
+        <v>0.01783689983945142</v>
+      </c>
+      <c r="G29">
+        <v>0.08770508764984569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02435279210570937</v>
+        <v>-0.04133677605563672</v>
       </c>
       <c r="C30">
-        <v>-0.004608506114845194</v>
+        <v>0.06971008294467089</v>
       </c>
       <c r="D30">
-        <v>0.09862492284030422</v>
+        <v>-0.02899769645867224</v>
       </c>
       <c r="E30">
-        <v>-0.0367664795367931</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05238672134683304</v>
+      </c>
+      <c r="F30">
+        <v>-0.0445942135705114</v>
+      </c>
+      <c r="G30">
+        <v>0.1019196535315071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01133971686339434</v>
+        <v>-0.05324472805529046</v>
       </c>
       <c r="C31">
-        <v>0.03758537001621752</v>
+        <v>0.03775001493959872</v>
       </c>
       <c r="D31">
-        <v>0.04050966653804847</v>
+        <v>-0.00360132664553664</v>
       </c>
       <c r="E31">
-        <v>0.01005405465828436</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.002379386514646741</v>
+      </c>
+      <c r="F31">
+        <v>0.03969675747835509</v>
+      </c>
+      <c r="G31">
+        <v>0.08303939185737118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004639680051695416</v>
+        <v>-0.001735013788192959</v>
       </c>
       <c r="C32">
-        <v>0.01897979405877443</v>
+        <v>0.02589282413560941</v>
       </c>
       <c r="D32">
-        <v>0.00797142525755928</v>
+        <v>0.003486077352675413</v>
       </c>
       <c r="E32">
-        <v>0.05377904899878014</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01925922168737302</v>
+      </c>
+      <c r="F32">
+        <v>-0.03634094710135973</v>
+      </c>
+      <c r="G32">
+        <v>0.09673896471310668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01521920657017764</v>
+        <v>-0.02767283989904655</v>
       </c>
       <c r="C33">
-        <v>0.02170148295358949</v>
+        <v>0.05056590496001813</v>
       </c>
       <c r="D33">
-        <v>0.04483223464950847</v>
+        <v>-0.01571545968802123</v>
       </c>
       <c r="E33">
-        <v>-0.02539219277510923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03552026090081974</v>
+      </c>
+      <c r="F33">
+        <v>-0.01578561727623392</v>
+      </c>
+      <c r="G33">
+        <v>0.1303944801012452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.00337859441976901</v>
+        <v>-0.04039415715894178</v>
       </c>
       <c r="C34">
-        <v>0.01347691736399997</v>
+        <v>0.06185792936712818</v>
       </c>
       <c r="D34">
-        <v>0.05701425877476249</v>
+        <v>0.004667800219993468</v>
       </c>
       <c r="E34">
-        <v>0.01514908166866913</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0005425429529844897</v>
+      </c>
+      <c r="F34">
+        <v>-0.01994907437558125</v>
+      </c>
+      <c r="G34">
+        <v>0.08668828232021826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01383342243908059</v>
+        <v>-0.01603615970573906</v>
       </c>
       <c r="C36">
-        <v>0.01774021201521262</v>
+        <v>0.009640653639595563</v>
       </c>
       <c r="D36">
-        <v>0.008973355435007253</v>
+        <v>-0.01222823115218032</v>
       </c>
       <c r="E36">
-        <v>0.005700720950296821</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004202561153115503</v>
+      </c>
+      <c r="F36">
+        <v>0.006788943938177062</v>
+      </c>
+      <c r="G36">
+        <v>0.07768271447886319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.001319308224887661</v>
+        <v>-0.03245598798532509</v>
       </c>
       <c r="C38">
-        <v>0.03375092206950035</v>
+        <v>0.03198364697457771</v>
       </c>
       <c r="D38">
-        <v>0.05395523078817303</v>
+        <v>0.007646031214267149</v>
       </c>
       <c r="E38">
-        <v>0.01076444961088793</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002365389745230343</v>
+      </c>
+      <c r="F38">
+        <v>0.01911080351623418</v>
+      </c>
+      <c r="G38">
+        <v>0.07762178120442993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004003346238382327</v>
+        <v>-0.03521910056708199</v>
       </c>
       <c r="C39">
-        <v>-0.02689382314410819</v>
+        <v>0.08133525525335238</v>
       </c>
       <c r="D39">
-        <v>0.1027815383170079</v>
+        <v>-0.01173378692145708</v>
       </c>
       <c r="E39">
-        <v>-0.004813732915324668</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02102168976004997</v>
+      </c>
+      <c r="F39">
+        <v>-0.02563260614683494</v>
+      </c>
+      <c r="G39">
+        <v>0.07819922252549047</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01259547733470965</v>
+        <v>-0.01530064405545616</v>
       </c>
       <c r="C40">
-        <v>0.01146476198233016</v>
+        <v>0.04325826222420485</v>
       </c>
       <c r="D40">
-        <v>0.04261707746540293</v>
+        <v>-0.01481005344587413</v>
       </c>
       <c r="E40">
-        <v>0.01340607928075238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02068219586047617</v>
+      </c>
+      <c r="F40">
+        <v>0.01685842127190433</v>
+      </c>
+      <c r="G40">
+        <v>0.1160295187209527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.007074711367360087</v>
+        <v>-0.01976894705327796</v>
       </c>
       <c r="C41">
-        <v>0.02127454141118953</v>
+        <v>0.001623965618985981</v>
       </c>
       <c r="D41">
-        <v>-0.01089635376568511</v>
+        <v>-0.004303601460811858</v>
       </c>
       <c r="E41">
-        <v>0.00256258884897832</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.00265012247765861</v>
+      </c>
+      <c r="F41">
+        <v>0.01331522847182193</v>
+      </c>
+      <c r="G41">
+        <v>0.06645473479136585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08959455907942532</v>
+        <v>-0.0085625002796033</v>
       </c>
       <c r="C42">
-        <v>-0.04276386599270908</v>
+        <v>0.03671588469294407</v>
       </c>
       <c r="D42">
-        <v>0.1714239648590227</v>
+        <v>-0.09169273059735229</v>
       </c>
       <c r="E42">
-        <v>-0.4154327418208295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01578741939111312</v>
+      </c>
+      <c r="F42">
+        <v>0.03411827360418791</v>
+      </c>
+      <c r="G42">
+        <v>-0.1466445118176658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008466945226614817</v>
+        <v>-0.03347261233898725</v>
       </c>
       <c r="C43">
-        <v>0.02550151025522895</v>
+        <v>0.01734107842187447</v>
       </c>
       <c r="D43">
-        <v>-0.008101132762911875</v>
+        <v>-0.006024580971488369</v>
       </c>
       <c r="E43">
-        <v>0.0006814476214271086</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0163172698066913</v>
+      </c>
+      <c r="F43">
+        <v>0.004000963936807057</v>
+      </c>
+      <c r="G43">
+        <v>0.09710630721489909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003606864955206075</v>
+        <v>-0.01212811543256966</v>
       </c>
       <c r="C44">
-        <v>0.001888514522542004</v>
+        <v>0.05923095628134144</v>
       </c>
       <c r="D44">
-        <v>0.0544042894176598</v>
+        <v>-0.006711034673495131</v>
       </c>
       <c r="E44">
-        <v>0.009324106356148125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01765811455305233</v>
+      </c>
+      <c r="F44">
+        <v>0.009536130172036226</v>
+      </c>
+      <c r="G44">
+        <v>0.09343114080162532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01182125463514534</v>
+        <v>-0.00834354656604132</v>
       </c>
       <c r="C46">
-        <v>0.01262406762692693</v>
+        <v>0.0181178476820446</v>
       </c>
       <c r="D46">
-        <v>0.007825832878931075</v>
+        <v>-0.01246038071323579</v>
       </c>
       <c r="E46">
-        <v>0.0004834402924105835</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001221044295056123</v>
+      </c>
+      <c r="F46">
+        <v>0.01787913403857922</v>
+      </c>
+      <c r="G46">
+        <v>0.09075909596429052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.005882742106664513</v>
+        <v>-0.07706731290613639</v>
       </c>
       <c r="C47">
-        <v>0.04459903334096336</v>
+        <v>0.06663690056729651</v>
       </c>
       <c r="D47">
-        <v>0.07252602805856301</v>
+        <v>0.005284382809830488</v>
       </c>
       <c r="E47">
-        <v>0.007662941151405428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008409893328106021</v>
+      </c>
+      <c r="F47">
+        <v>0.05454217879997598</v>
+      </c>
+      <c r="G47">
+        <v>0.07329121732844408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005163635013462367</v>
+        <v>-0.02042590591624463</v>
       </c>
       <c r="C48">
-        <v>0.02391539441100728</v>
+        <v>0.01291316593415208</v>
       </c>
       <c r="D48">
-        <v>0.02103275593732585</v>
+        <v>-0.001612372590224211</v>
       </c>
       <c r="E48">
-        <v>0.001830951739439337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.001212201870049191</v>
+      </c>
+      <c r="F48">
+        <v>0.0209332317534679</v>
+      </c>
+      <c r="G48">
+        <v>0.08094614567272525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.008133499710421245</v>
+        <v>-0.07561482899322873</v>
       </c>
       <c r="C50">
-        <v>0.04884497120394175</v>
+        <v>0.07017320510912274</v>
       </c>
       <c r="D50">
-        <v>0.06936653554189814</v>
+        <v>0.002982583250020401</v>
       </c>
       <c r="E50">
-        <v>0.03201617067833137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.009597182592241413</v>
+      </c>
+      <c r="F50">
+        <v>0.05653768302596525</v>
+      </c>
+      <c r="G50">
+        <v>0.08888633356397943</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008139116900217045</v>
+        <v>-0.0142091596909702</v>
       </c>
       <c r="C51">
-        <v>0.01336604574322971</v>
+        <v>0.03603379021282463</v>
       </c>
       <c r="D51">
-        <v>0.01693929117067737</v>
+        <v>-0.01032855039472529</v>
       </c>
       <c r="E51">
-        <v>0.007180626134291082</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01897726289170559</v>
+      </c>
+      <c r="F51">
+        <v>-0.02256906917790088</v>
+      </c>
+      <c r="G51">
+        <v>0.1170357044412167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01004869650365036</v>
+        <v>-0.08171679384700882</v>
       </c>
       <c r="C53">
-        <v>0.05465805762581947</v>
+        <v>0.08482438707746214</v>
       </c>
       <c r="D53">
-        <v>0.1287139073760583</v>
+        <v>0.003984583395020711</v>
       </c>
       <c r="E53">
-        <v>0.0160735751066735</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02673025147891752</v>
+      </c>
+      <c r="F53">
+        <v>0.06783045142004741</v>
+      </c>
+      <c r="G53">
+        <v>0.07318682342388064</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.003167777928074119</v>
+        <v>-0.02990343323857718</v>
       </c>
       <c r="C54">
-        <v>0.03468361109582239</v>
+        <v>0.01659815470088762</v>
       </c>
       <c r="D54">
-        <v>0.001513909700820881</v>
+        <v>0.001254766103790593</v>
       </c>
       <c r="E54">
-        <v>-0.002730718959558098</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01301455143147417</v>
+      </c>
+      <c r="F54">
+        <v>6.460887538082943e-05</v>
+      </c>
+      <c r="G54">
+        <v>0.09077084146503858</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005102971068194261</v>
+        <v>-0.07113616212102865</v>
       </c>
       <c r="C55">
-        <v>0.03363932223593479</v>
+        <v>0.06881976970246798</v>
       </c>
       <c r="D55">
-        <v>0.1012099801537537</v>
+        <v>0.005329206525851918</v>
       </c>
       <c r="E55">
-        <v>-0.001667757168106347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02356275226449246</v>
+      </c>
+      <c r="F55">
+        <v>0.06202660099745166</v>
+      </c>
+      <c r="G55">
+        <v>0.04538582462438239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.009503086433143551</v>
+        <v>-0.1378800271876445</v>
       </c>
       <c r="C56">
-        <v>0.07718118767846778</v>
+        <v>0.1083798267711691</v>
       </c>
       <c r="D56">
-        <v>0.1570441982864817</v>
+        <v>0.01297429522855656</v>
       </c>
       <c r="E56">
-        <v>0.008832964827806612</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03337960896724777</v>
+      </c>
+      <c r="F56">
+        <v>0.08097029199272</v>
+      </c>
+      <c r="G56">
+        <v>0.02130982350967331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02429295438141271</v>
+        <v>-0.006716519719139913</v>
       </c>
       <c r="C57">
-        <v>0.005262633499567614</v>
+        <v>0.00928545733732423</v>
       </c>
       <c r="D57">
-        <v>0.06528260876424066</v>
+        <v>-0.02354364802012784</v>
       </c>
       <c r="E57">
-        <v>-0.01012853923619884</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02496230012756653</v>
+      </c>
+      <c r="F57">
+        <v>-0.009178994547459234</v>
+      </c>
+      <c r="G57">
+        <v>0.02825267455495913</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01503253163580308</v>
+        <v>-0.05519975892509751</v>
       </c>
       <c r="C58">
-        <v>0.05728932172913812</v>
+        <v>0.0546703260909403</v>
       </c>
       <c r="D58">
-        <v>0.1735153354751101</v>
+        <v>-0.02543413927890648</v>
       </c>
       <c r="E58">
-        <v>-0.5145986034629624</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9320867880629234</v>
+      </c>
+      <c r="F58">
+        <v>0.2406008093308472</v>
+      </c>
+      <c r="G58">
+        <v>-0.1405687026286739</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.05226676413946239</v>
+        <v>-0.1603587613232579</v>
       </c>
       <c r="C59">
-        <v>0.2681776275857564</v>
+        <v>-0.2032268894194104</v>
       </c>
       <c r="D59">
-        <v>-0.1170678096687105</v>
+        <v>0.01080669252440123</v>
       </c>
       <c r="E59">
-        <v>0.007032023899800552</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01928108984618174</v>
+      </c>
+      <c r="F59">
+        <v>-0.004748664094737423</v>
+      </c>
+      <c r="G59">
+        <v>0.04180374440839606</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04803910522001473</v>
+        <v>-0.2851598644952895</v>
       </c>
       <c r="C60">
-        <v>0.1521693323392331</v>
+        <v>0.1073654097912599</v>
       </c>
       <c r="D60">
-        <v>0.128615231317985</v>
+        <v>-0.01302612958375946</v>
       </c>
       <c r="E60">
-        <v>0.03190105354715864</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0005941550265280009</v>
+      </c>
+      <c r="F60">
+        <v>-0.3472405164159088</v>
+      </c>
+      <c r="G60">
+        <v>-0.1287763889141245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003563478533934791</v>
+        <v>-0.03744681203887682</v>
       </c>
       <c r="C61">
-        <v>0.001587731009959343</v>
+        <v>0.06773471874943632</v>
       </c>
       <c r="D61">
-        <v>0.07859104733989826</v>
+        <v>-0.005213985416250393</v>
       </c>
       <c r="E61">
-        <v>0.009353828718829232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01331606363964605</v>
+      </c>
+      <c r="F61">
+        <v>-0.01391859023321137</v>
+      </c>
+      <c r="G61">
+        <v>0.08002321256728476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008318748395459279</v>
+        <v>-0.01429610983543617</v>
       </c>
       <c r="C63">
-        <v>0.004328622259786993</v>
+        <v>0.02991042649032868</v>
       </c>
       <c r="D63">
-        <v>0.02346655942578145</v>
+        <v>-0.008384578696366168</v>
       </c>
       <c r="E63">
-        <v>0.01361869363646982</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0006707471719464693</v>
+      </c>
+      <c r="F63">
+        <v>0.01711491781484295</v>
+      </c>
+      <c r="G63">
+        <v>0.08125406426940192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01016182781053465</v>
+        <v>-0.04725738725850617</v>
       </c>
       <c r="C64">
-        <v>0.02591959858928177</v>
+        <v>0.04726290356084323</v>
       </c>
       <c r="D64">
-        <v>0.06086707095446299</v>
+        <v>-0.006275156576677903</v>
       </c>
       <c r="E64">
-        <v>-0.002510230311048444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0002956197098770047</v>
+      </c>
+      <c r="F64">
+        <v>-0.006583935128022933</v>
+      </c>
+      <c r="G64">
+        <v>0.07870856175221444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01767898421580907</v>
+        <v>-0.07582771216790313</v>
       </c>
       <c r="C65">
-        <v>-0.0002287241418497966</v>
+        <v>0.06036486199002503</v>
       </c>
       <c r="D65">
-        <v>0.1033493096775627</v>
+        <v>-0.01628766188654342</v>
       </c>
       <c r="E65">
-        <v>0.01511011352084951</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02852361309161664</v>
+      </c>
+      <c r="F65">
+        <v>-0.02959932204484643</v>
+      </c>
+      <c r="G65">
+        <v>0.02743338899190617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004552694322825212</v>
+        <v>-0.05128837252575712</v>
       </c>
       <c r="C66">
-        <v>-0.0222729436980366</v>
+        <v>0.1109507751503754</v>
       </c>
       <c r="D66">
-        <v>0.139061398129717</v>
+        <v>-0.011727591373109</v>
       </c>
       <c r="E66">
-        <v>0.0008439420807312878</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03042598958156701</v>
+      </c>
+      <c r="F66">
+        <v>-0.03518294787419296</v>
+      </c>
+      <c r="G66">
+        <v>0.0928326459279543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.005814791372649628</v>
+        <v>-0.05538136563286001</v>
       </c>
       <c r="C67">
-        <v>0.05307563358531515</v>
+        <v>0.03553220086055961</v>
       </c>
       <c r="D67">
-        <v>0.06789852463958572</v>
+        <v>0.006044775154760956</v>
       </c>
       <c r="E67">
-        <v>0.01076868076120641</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004633188060767653</v>
+      </c>
+      <c r="F67">
+        <v>0.0177733286165348</v>
+      </c>
+      <c r="G67">
+        <v>0.06863458154186614</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.06618213153155604</v>
+        <v>-0.1535545582735473</v>
       </c>
       <c r="C68">
-        <v>0.2406357556143386</v>
+        <v>-0.2689257078463053</v>
       </c>
       <c r="D68">
-        <v>-0.1589905522173323</v>
+        <v>-0.006669441009400158</v>
       </c>
       <c r="E68">
-        <v>-0.02401912364929551</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01273439846765599</v>
+      </c>
+      <c r="F68">
+        <v>0.03096843740635292</v>
+      </c>
+      <c r="G68">
+        <v>0.03034187477152861</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001082032580415646</v>
+        <v>-0.08105156178657098</v>
       </c>
       <c r="C69">
-        <v>0.03696645808172956</v>
+        <v>0.06967630670392014</v>
       </c>
       <c r="D69">
-        <v>0.07549284049401574</v>
+        <v>0.009203497345332188</v>
       </c>
       <c r="E69">
-        <v>0.01786038406022413</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02398039261574408</v>
+      </c>
+      <c r="F69">
+        <v>0.03679707230986858</v>
+      </c>
+      <c r="G69">
+        <v>0.08118591092893404</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05048013765420274</v>
+        <v>-0.1399831458896318</v>
       </c>
       <c r="C71">
-        <v>0.2119583249879916</v>
+        <v>-0.2276952923861508</v>
       </c>
       <c r="D71">
-        <v>-0.1105635849862284</v>
+        <v>0.002048231732006865</v>
       </c>
       <c r="E71">
-        <v>-0.01502964085804069</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03312256640188518</v>
+      </c>
+      <c r="F71">
+        <v>0.01896845568966301</v>
+      </c>
+      <c r="G71">
+        <v>0.06314242412443866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0004406708453876142</v>
+        <v>-0.08492086568120197</v>
       </c>
       <c r="C72">
-        <v>0.02865737135723912</v>
+        <v>0.07433943966643276</v>
       </c>
       <c r="D72">
-        <v>0.114726652857694</v>
+        <v>0.007971342106655899</v>
       </c>
       <c r="E72">
-        <v>0.01696576703261684</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0026100711873573</v>
+      </c>
+      <c r="F72">
+        <v>-0.04019259437439726</v>
+      </c>
+      <c r="G72">
+        <v>0.07074431403877998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.06117169457992591</v>
+        <v>-0.3729078122571143</v>
       </c>
       <c r="C73">
-        <v>0.1626637192855474</v>
+        <v>0.1183861464946325</v>
       </c>
       <c r="D73">
-        <v>0.2346263913919532</v>
+        <v>-0.0222592348721877</v>
       </c>
       <c r="E73">
-        <v>-0.007656754443607641</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07243550080400706</v>
+      </c>
+      <c r="F73">
+        <v>-0.5781927960220681</v>
+      </c>
+      <c r="G73">
+        <v>-0.2546838606708783</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.006316973185675554</v>
+        <v>-0.1053027381239068</v>
       </c>
       <c r="C74">
-        <v>0.06169984220406371</v>
+        <v>0.1102530356474251</v>
       </c>
       <c r="D74">
-        <v>0.1709452361837912</v>
+        <v>0.009867413099862964</v>
       </c>
       <c r="E74">
-        <v>-0.001627058414546851</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01023461635476478</v>
+      </c>
+      <c r="F74">
+        <v>0.07118264290978843</v>
+      </c>
+      <c r="G74">
+        <v>0.06337557491578731</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01726003197679605</v>
+        <v>-0.2495804563727742</v>
       </c>
       <c r="C75">
-        <v>0.1497638694430443</v>
+        <v>0.1506252711161705</v>
       </c>
       <c r="D75">
-        <v>0.2863155144325849</v>
+        <v>0.03135930633105243</v>
       </c>
       <c r="E75">
-        <v>-0.01302750900215746</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05875702785380263</v>
+      </c>
+      <c r="F75">
+        <v>0.1749441549374502</v>
+      </c>
+      <c r="G75">
+        <v>-0.05751731708983886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.005532798154262351</v>
+        <v>-0.1218931695054583</v>
       </c>
       <c r="C76">
-        <v>0.09704319926860133</v>
+        <v>0.1117369530655106</v>
       </c>
       <c r="D76">
-        <v>0.2181472473855202</v>
+        <v>0.01982033526465905</v>
       </c>
       <c r="E76">
-        <v>0.03435084589553324</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03624657862419568</v>
+      </c>
+      <c r="F76">
+        <v>0.1173000266082038</v>
+      </c>
+      <c r="G76">
+        <v>0.04357934011444733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01609755944549196</v>
+        <v>-0.06872888450098642</v>
       </c>
       <c r="C77">
-        <v>0.02494748313416834</v>
+        <v>0.061953757669585</v>
       </c>
       <c r="D77">
-        <v>0.07103004997394652</v>
+        <v>-0.011529234954398</v>
       </c>
       <c r="E77">
-        <v>0.0013124698725407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04273185550403485</v>
+      </c>
+      <c r="F77">
+        <v>-0.008537778633796443</v>
+      </c>
+      <c r="G77">
+        <v>0.06355485974130322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.006281237058712203</v>
+        <v>-0.04291280795775092</v>
       </c>
       <c r="C78">
-        <v>0.01345594952780084</v>
+        <v>0.0529075429729337</v>
       </c>
       <c r="D78">
-        <v>0.06008441398740528</v>
+        <v>-0.005616627326305116</v>
       </c>
       <c r="E78">
-        <v>0.002758013651299104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02242542174257478</v>
+      </c>
+      <c r="F78">
+        <v>-0.03451631339157632</v>
+      </c>
+      <c r="G78">
+        <v>0.0860562913648714</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01651622901769037</v>
+        <v>-0.05221741307881367</v>
       </c>
       <c r="C80">
-        <v>0.05930529579306632</v>
+        <v>0.0740360884087095</v>
       </c>
       <c r="D80">
-        <v>0.1964929877182809</v>
+        <v>-0.009810807010258106</v>
       </c>
       <c r="E80">
-        <v>0.7219778112091845</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03755099904461359</v>
+      </c>
+      <c r="F80">
+        <v>-0.01771380912240521</v>
+      </c>
+      <c r="G80">
+        <v>0.4739495381891236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01172541833178315</v>
+        <v>-0.1405230477186607</v>
       </c>
       <c r="C81">
-        <v>0.09188602966673322</v>
+        <v>0.09664132378910749</v>
       </c>
       <c r="D81">
-        <v>0.1714261819077948</v>
+        <v>0.01575571530006941</v>
       </c>
       <c r="E81">
-        <v>0.01552839630697024</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03549606407156881</v>
+      </c>
+      <c r="F81">
+        <v>0.1341889910893341</v>
+      </c>
+      <c r="G81">
+        <v>0.0170103023792823</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1252135711280666</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07219621078461205</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00820058186741811</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08969374277617122</v>
+      </c>
+      <c r="F82">
+        <v>0.03623533898453345</v>
+      </c>
+      <c r="G82">
+        <v>0.03611048493525962</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008627614775307999</v>
+        <v>-0.03623647611266746</v>
       </c>
       <c r="C83">
-        <v>0.02189757558160383</v>
+        <v>0.02929308477395626</v>
       </c>
       <c r="D83">
-        <v>0.03734147685653912</v>
+        <v>-0.005667443961847593</v>
       </c>
       <c r="E83">
-        <v>-0.001866884170041074</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02777283826577316</v>
+      </c>
+      <c r="F83">
+        <v>-0.03193160001917351</v>
+      </c>
+      <c r="G83">
+        <v>0.05664258623450229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02333296495374941</v>
+        <v>-0.2151634333537305</v>
       </c>
       <c r="C85">
-        <v>0.1176471230615287</v>
+        <v>0.1446750688014053</v>
       </c>
       <c r="D85">
-        <v>0.2628655297129534</v>
+        <v>0.01912208055355548</v>
       </c>
       <c r="E85">
-        <v>0.002117105030140268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1005211304772959</v>
+      </c>
+      <c r="F85">
+        <v>0.1381062149170045</v>
+      </c>
+      <c r="G85">
+        <v>-0.1139078112273039</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01010989183788967</v>
+        <v>-0.01396878686342135</v>
       </c>
       <c r="C86">
-        <v>0.02354334191789606</v>
+        <v>0.02904289716922316</v>
       </c>
       <c r="D86">
-        <v>0.05434080020290624</v>
+        <v>-0.01254104976165614</v>
       </c>
       <c r="E86">
-        <v>-0.03370038597801726</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04786697633416988</v>
+      </c>
+      <c r="F86">
+        <v>-0.02946741772964971</v>
+      </c>
+      <c r="G86">
+        <v>0.1757004482197469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00844865938354197</v>
+        <v>-0.02319611578437469</v>
       </c>
       <c r="C87">
-        <v>0.0004185119512785815</v>
+        <v>0.02397266802804609</v>
       </c>
       <c r="D87">
-        <v>0.05951334135823298</v>
+        <v>-0.01219367227675557</v>
       </c>
       <c r="E87">
-        <v>-0.006921841116644011</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08674629815017278</v>
+      </c>
+      <c r="F87">
+        <v>-0.01402664354628186</v>
+      </c>
+      <c r="G87">
+        <v>0.1124338303797855</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02908160839620919</v>
+        <v>-0.09201902515340375</v>
       </c>
       <c r="C88">
-        <v>0.02886662176139409</v>
+        <v>0.06620829039635674</v>
       </c>
       <c r="D88">
-        <v>0.05301867714775103</v>
+        <v>-0.02239383616160161</v>
       </c>
       <c r="E88">
-        <v>0.0002096135911643532</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.008510076629295441</v>
+      </c>
+      <c r="F88">
+        <v>0.01615794757554381</v>
+      </c>
+      <c r="G88">
+        <v>0.07526996790365699</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.09753014867522748</v>
+        <v>-0.2354029340770832</v>
       </c>
       <c r="C89">
-        <v>0.3989092042308156</v>
+        <v>-0.3675470133933859</v>
       </c>
       <c r="D89">
-        <v>-0.1956695380410252</v>
+        <v>-0.0005104163029299891</v>
       </c>
       <c r="E89">
-        <v>0.01930086238412459</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01226169893962754</v>
+      </c>
+      <c r="F89">
+        <v>0.02693550450768652</v>
+      </c>
+      <c r="G89">
+        <v>0.06804234123261063</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07441730605000023</v>
+        <v>-0.2073690796922921</v>
       </c>
       <c r="C90">
-        <v>0.311491221381834</v>
+        <v>-0.3196834865252982</v>
       </c>
       <c r="D90">
-        <v>-0.1839267155263285</v>
+        <v>0.003910792553295074</v>
       </c>
       <c r="E90">
-        <v>-0.02234247203521069</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.00287884659565732</v>
+      </c>
+      <c r="F90">
+        <v>0.05153451424680944</v>
+      </c>
+      <c r="G90">
+        <v>0.02875546639042289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01410711315183489</v>
+        <v>-0.1892096052600548</v>
       </c>
       <c r="C91">
-        <v>0.1341439284529791</v>
+        <v>0.1389330343758207</v>
       </c>
       <c r="D91">
-        <v>0.2177537189358735</v>
+        <v>0.0234730479664191</v>
       </c>
       <c r="E91">
-        <v>0.01502449097894979</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06498477789037659</v>
+      </c>
+      <c r="F91">
+        <v>0.1496320170571436</v>
+      </c>
+      <c r="G91">
+        <v>0.008338932788066524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.04255071653771265</v>
+        <v>-0.2008784097322913</v>
       </c>
       <c r="C92">
-        <v>0.3233871420528837</v>
+        <v>-0.2574325410535114</v>
       </c>
       <c r="D92">
-        <v>-0.0812898063711201</v>
+        <v>0.03830346668574482</v>
       </c>
       <c r="E92">
-        <v>-0.0244987245874306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0303155381057304</v>
+      </c>
+      <c r="F92">
+        <v>0.06292377803640964</v>
+      </c>
+      <c r="G92">
+        <v>0.1276181708205384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.07273645911608152</v>
+        <v>-0.2318021460717023</v>
       </c>
       <c r="C93">
-        <v>0.3309864003347388</v>
+        <v>-0.3151428545374191</v>
       </c>
       <c r="D93">
-        <v>-0.1601634931083329</v>
+        <v>0.01063508431416932</v>
       </c>
       <c r="E93">
-        <v>-0.03985680984936654</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009254965663317983</v>
+      </c>
+      <c r="F93">
+        <v>0.03750791094164297</v>
+      </c>
+      <c r="G93">
+        <v>0.03586332058344984</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03766139807486543</v>
+        <v>-0.3167801135262656</v>
       </c>
       <c r="C94">
-        <v>0.1524318939402677</v>
+        <v>0.1745791169711092</v>
       </c>
       <c r="D94">
-        <v>0.2299091656725803</v>
+        <v>0.01859233158292897</v>
       </c>
       <c r="E94">
-        <v>-0.01016430597239991</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1773213171435314</v>
+      </c>
+      <c r="F94">
+        <v>0.4685917738792857</v>
+      </c>
+      <c r="G94">
+        <v>-0.3415270601829976</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002326317892903707</v>
+        <v>-0.1000611168066921</v>
       </c>
       <c r="C95">
-        <v>0.03389915220826924</v>
+        <v>0.0856762507702736</v>
       </c>
       <c r="D95">
-        <v>0.1121625560283072</v>
+        <v>0.00993815988130479</v>
       </c>
       <c r="E95">
-        <v>-0.128313050448221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07253226016216344</v>
+      </c>
+      <c r="F95">
+        <v>-0.2047678614654935</v>
+      </c>
+      <c r="G95">
+        <v>-0.05540573496722037</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02103582686726151</v>
+        <v>-0.1967568919846329</v>
       </c>
       <c r="C98">
-        <v>0.151248846362263</v>
+        <v>0.04773094486015766</v>
       </c>
       <c r="D98">
-        <v>0.1571068595086698</v>
+        <v>0.01227606640939717</v>
       </c>
       <c r="E98">
-        <v>-0.03204299014478556</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06988722667581332</v>
+      </c>
+      <c r="F98">
+        <v>-0.2413787683170178</v>
+      </c>
+      <c r="G98">
+        <v>-0.013717575803743</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00931989047439317</v>
+        <v>-0.009473785368721541</v>
       </c>
       <c r="C101">
-        <v>0.01590489505521884</v>
+        <v>0.02263706511985977</v>
       </c>
       <c r="D101">
-        <v>0.01708003127569776</v>
+        <v>-0.008589985812388292</v>
       </c>
       <c r="E101">
-        <v>0.005422586174000207</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001012274364034605</v>
+      </c>
+      <c r="F101">
+        <v>0.01881781485311049</v>
+      </c>
+      <c r="G101">
+        <v>0.08704838379802743</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02026000672477107</v>
+        <v>-0.1175235326782552</v>
       </c>
       <c r="C102">
-        <v>0.06279309038758893</v>
+        <v>0.08398090588896055</v>
       </c>
       <c r="D102">
-        <v>0.1238310337482265</v>
+        <v>-0.0004542583979607484</v>
       </c>
       <c r="E102">
-        <v>0.002500012440368413</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0353315341446501</v>
+      </c>
+      <c r="F102">
+        <v>0.04006090091155276</v>
+      </c>
+      <c r="G102">
+        <v>-0.003853439804615269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001993076956541026</v>
+        <v>-0.003150114006236771</v>
       </c>
       <c r="C103">
-        <v>0.01010132055104516</v>
+        <v>0.002471721871641396</v>
       </c>
       <c r="D103">
-        <v>0.01690802394547652</v>
+        <v>5.440830079083369e-05</v>
       </c>
       <c r="E103">
-        <v>0.01519439697713693</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001013720172278617</v>
+      </c>
+      <c r="F103">
+        <v>0.007679697577992786</v>
+      </c>
+      <c r="G103">
+        <v>0.01399836371721058</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.968280497522771</v>
+        <v>-0.02078593356751223</v>
       </c>
       <c r="C104">
-        <v>-0.2085471415805926</v>
+        <v>-0.02873997029200802</v>
       </c>
       <c r="D104">
-        <v>-0.02696406604185854</v>
+        <v>-0.9874854396253303</v>
       </c>
       <c r="E104">
-        <v>0.03829625415483266</v>
+        <v>0.04976020851284479</v>
+      </c>
+      <c r="F104">
+        <v>0.03868183684232982</v>
+      </c>
+      <c r="G104">
+        <v>-0.02954738632929184</v>
       </c>
     </row>
   </sheetData>
